--- a/results1.xlsx
+++ b/results1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -264,21 +264,23 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1201,24 +1203,24 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.56632653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.42857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +2312,25 @@
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E27" s="7"/>
+      <c r="F27" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="0" t="n">
         <v>94.87</v>
@@ -2356,7 +2376,25 @@
       <c r="A28" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E28" s="7"/>
+      <c r="F28" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="0" t="n">
         <v>94.87</v>
@@ -2402,7 +2440,25 @@
       <c r="A29" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>81.48</v>
+      </c>
       <c r="E29" s="7"/>
+      <c r="F29" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="0" t="n">
         <v>94.87</v>
@@ -2448,7 +2504,25 @@
       <c r="A30" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E30" s="7"/>
+      <c r="F30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="0" t="n">
         <v>94.87</v>
@@ -2494,7 +2568,25 @@
       <c r="A31" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>77.78</v>
+      </c>
       <c r="E31" s="7"/>
+      <c r="F31" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="0" t="n">
         <v>97.43</v>
@@ -2540,7 +2632,25 @@
       <c r="A32" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>77.78</v>
+      </c>
       <c r="E32" s="7"/>
+      <c r="F32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="0" t="n">
         <v>97.43</v>
@@ -2586,7 +2696,25 @@
       <c r="A33" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="B33" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E33" s="7"/>
+      <c r="F33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="0" t="n">
         <v>97.43</v>
@@ -2632,7 +2760,25 @@
       <c r="A34" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E34" s="7"/>
+      <c r="F34" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="0" t="n">
         <v>97.43</v>
@@ -2678,7 +2824,25 @@
       <c r="A35" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="B35" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E35" s="7"/>
+      <c r="F35" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="0" t="n">
         <v>97.43</v>
@@ -2724,7 +2888,25 @@
       <c r="A36" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>74.07</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>85.18</v>
+      </c>
       <c r="E36" s="7"/>
+      <c r="F36" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="0" t="n">
         <v>97.43</v>
@@ -2777,30 +2959,30 @@
       <c r="A38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="12" t="e">
+      <c r="B38" s="12" t="n">
         <f aca="false">AVERAGE(B27:B36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="12" t="e">
+        <v>70.736</v>
+      </c>
+      <c r="C38" s="12" t="n">
         <f aca="false">AVERAGE(C27:C36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="12" t="e">
+        <v>72.59</v>
+      </c>
+      <c r="D38" s="12" t="n">
         <f aca="false">AVERAGE(D27:D36)</f>
-        <v>#DIV/0!</v>
+        <v>83.33</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="12" t="e">
+      <c r="F38" s="12" t="n">
         <f aca="false">AVERAGE(F27:F36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="12" t="e">
+        <v>87.5</v>
+      </c>
+      <c r="G38" s="12" t="n">
         <f aca="false">AVERAGE(G27:G36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="12" t="e">
+        <v>90</v>
+      </c>
+      <c r="H38" s="12" t="n">
         <f aca="false">AVERAGE(H27:H36)</f>
-        <v>#DIV/0!</v>
+        <v>95</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12" t="n">
@@ -2858,30 +3040,30 @@
       <c r="A39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="12" t="e">
+      <c r="B39" s="12" t="n">
         <f aca="false">STDEV(B27:B36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" s="12" t="e">
+        <v>3.68430364293354</v>
+      </c>
+      <c r="C39" s="12" t="n">
         <f aca="false">STDEV(C27:C36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="12" t="e">
+        <v>4.68632051827444</v>
+      </c>
+      <c r="D39" s="12" t="n">
         <f aca="false">STDEV(D27:D36)</f>
-        <v>#DIV/0!</v>
+        <v>3.14439536671555</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="12" t="e">
+      <c r="F39" s="12" t="n">
         <f aca="false">STDEV(F27:F36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="12" t="e">
+        <v>7.16860438920219</v>
+      </c>
+      <c r="G39" s="12" t="n">
         <f aca="false">STDEV(G27:G36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="n">
         <f aca="false">STDEV(H27:H36)</f>
-        <v>#DIV/0!</v>
+        <v>2.35702260395516</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12" t="n">
